--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1029199.939626545</v>
+        <v>-1031839.286944567</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>175.0730396088906</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>257.2403189156672</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>136.1812963327086</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>160.3548505250668</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>121.9758472888199</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>199.9300270440842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>44.58912478144786</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>95.6223927444323</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0975552298111</v>
+        <v>378.8017771651961</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>240.0333974720301</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6180720598446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343139</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>253.630393765991</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679924042</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>264.8991323933625</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9698660663636</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684477</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725603</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.7614503848</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.798933444388</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.798933444388</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>643.7929909941088</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>643.7929909941088</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>228.0882407183976</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.500622424734</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.361290448922</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251083</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084328</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.0245808582381</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W4" t="n">
-        <v>722.0141317562554</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="X4" t="n">
-        <v>494.0245808582381</v>
+        <v>1023.158287538505</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.0245808582381</v>
+        <v>802.3657083949751</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.9810522552812</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="C5" t="n">
-        <v>522.0185353148695</v>
+        <v>1275.288014512648</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>1275.288014512648</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>889.499761914404</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>478.5138571247964</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X5" t="n">
-        <v>1479.530414586155</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="Y5" t="n">
-        <v>1277.580892319403</v>
+        <v>1644.25053145306</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1922.533821476954</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.2580926322059</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C7" t="n">
-        <v>352.2580926322059</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D7" t="n">
-        <v>202.1414532198702</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E7" t="n">
-        <v>202.1414532198702</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1240.645690250514</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1240.645690250514</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>1240.645690250514</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302233</v>
+        <v>951.2285202135537</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322059</v>
+        <v>951.2285202135537</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.2580926322059</v>
+        <v>951.2285202135537</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670286</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729874</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123124</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248793</v>
+        <v>498.0825736845405</v>
       </c>
       <c r="F8" t="n">
-        <v>761.7467117756759</v>
+        <v>491.137072935337</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2153.285934409299</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409299</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996963</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.25620141457</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.36625391666</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.36625391666</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134518</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348675</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435999</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005525</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005525</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799638</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.051663762677</v>
+        <v>1016.699583034483</v>
       </c>
       <c r="X10" t="n">
-        <v>2153.285934409299</v>
+        <v>788.7100321364661</v>
       </c>
       <c r="Y10" t="n">
-        <v>2153.285934409299</v>
+        <v>788.7100321364661</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5270,43 +5270,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606602</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327533</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204176</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380245</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>340.3917814401141</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038333</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,28 +5492,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371523</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715721</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509834</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.18352155162</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2027.396014107403</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1738.320787451601</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.636299245714</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.219129208753</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.547769317909</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>762.547769317909</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055732</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231801</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252697</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4319895401497</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6853,16 +6853,16 @@
         <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,16 +7245,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979287</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,34 +7567,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156759</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656818</v>
@@ -7795,22 +7795,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>224.335519760177</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>138.9393975111054</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>70.03064962107845</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.361954186736342e-12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>335.9678733465996</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>125.9455129535148</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.35983168384756</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.4907817628019</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>150.3417020038824</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012547</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>32.89260457059999</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3744592024041</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>21.62386594322851</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>49.43558426092471</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575596</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896783</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642495</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>101.6825818796766</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1032370.759377602</v>
+        <v>1032370.759377603</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943219</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26338,7 +26338,7 @@
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
@@ -26347,7 +26347,7 @@
         <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182268</v>
+        <v>67721.68800182245</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496494</v>
+        <v>54516.86175496507</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281078</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756524</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985003</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="M4" t="n">
+        <v>17328.05961985005</v>
+      </c>
+      <c r="N4" t="n">
         <v>17328.05961985007</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17328.05961985003</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985005</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985005</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1092954.276876407</v>
+        <v>-1093314.359892125</v>
       </c>
       <c r="C6" t="n">
         <v>-24403.60366587635</v>
       </c>
       <c r="D6" t="n">
-        <v>-183824.8736637684</v>
+        <v>-183824.8736637681</v>
       </c>
       <c r="E6" t="n">
-        <v>-234085.542065517</v>
+        <v>-234120.279990953</v>
       </c>
       <c r="F6" t="n">
-        <v>91326.91974183766</v>
+        <v>91292.1818164022</v>
       </c>
       <c r="G6" t="n">
-        <v>91326.91974183785</v>
+        <v>91292.18181640218</v>
       </c>
       <c r="H6" t="n">
-        <v>91326.91974183786</v>
+        <v>91292.18181640215</v>
       </c>
       <c r="I6" t="n">
-        <v>91326.91974183793</v>
+        <v>91292.18181640212</v>
       </c>
       <c r="J6" t="n">
-        <v>-76278.25806814464</v>
+        <v>-76312.99599358036</v>
       </c>
       <c r="K6" t="n">
-        <v>91326.91974183782</v>
+        <v>91292.18181640218</v>
       </c>
       <c r="L6" t="n">
-        <v>17046.57899048299</v>
+        <v>17046.57899048325</v>
       </c>
       <c r="M6" t="n">
-        <v>-286.7609432061145</v>
+        <v>-286.76094320626</v>
       </c>
       <c r="N6" t="n">
-        <v>84768.26699230539</v>
+        <v>84768.26699230543</v>
       </c>
       <c r="O6" t="n">
-        <v>84768.26699230538</v>
+        <v>84768.26699230541</v>
       </c>
       <c r="P6" t="n">
-        <v>84768.26699230541</v>
+        <v>84768.26699230549</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022546</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>18.71516827408334</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.09238371494679</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>65.3548048639704</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>289.5718554841341</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>186.3079116119694</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8319232414834</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>125.1263032527796</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>58.82417042364233</v>
+        <v>32.11994848825736</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>46.48960086456094</v>
       </c>
       <c r="X10" t="n">
-        <v>13.0915833291925</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,10 +28381,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31856,13 +31856,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727245</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175656</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182639</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946146</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.560797075695</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038093</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435946</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.3926848685833</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0158803980272</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>530.1364971039794</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>319.7101787446108</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35504,13 +35504,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096339</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507062</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383897</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501702</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125056</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991502</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.5512458942243</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
